--- a/ch_10/ch_10_solutions.xlsx
+++ b/ch_10/ch_10_solutions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26610"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26619"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\modern-analytics-excel-book\ch_10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\modern-analytics-excel-book\ch_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C032FC0-2538-4225-9A5B-2B1BF9ED5C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C756CB33-8A0A-4213-B4F8-DC78092B7CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="array-references" sheetId="3" r:id="rId1"/>
@@ -2317,7 +2317,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E39B22-B5C6-428C-A3CD-9AFFB066484B}">
-  <dimension ref="A1:V63"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
@@ -2329,15 +2329,11 @@
     <col min="4" max="4" width="11.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.06640625" customWidth="1"/>
-    <col min="9" max="9" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.86328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.06640625" customWidth="1"/>
+    <col min="16" max="16" width="8.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2356,30 +2352,30 @@
       <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" t="str" cm="1">
+        <f t="array" ref="H1:M1">dm_sales_sort[#Headers]</f>
+        <v>trans_id</v>
+      </c>
+      <c r="I1" t="str">
+        <v>emp_first</v>
+      </c>
+      <c r="J1" t="str">
+        <v>emp_last</v>
+      </c>
+      <c r="K1" t="str">
+        <v>product</v>
+      </c>
+      <c r="L1" t="str">
+        <v>quantity</v>
+      </c>
+      <c r="M1" t="str">
+        <v>sales_amt</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" t="str" cm="1">
-        <f t="array" ref="Q1:V1">dm_sales_sort[#Headers]</f>
-        <v>trans_id</v>
-      </c>
-      <c r="R1" t="str">
-        <v>emp_first</v>
-      </c>
-      <c r="S1" t="str">
-        <v>emp_last</v>
-      </c>
-      <c r="T1" t="str">
-        <v>product</v>
-      </c>
-      <c r="U1" t="str">
-        <v>quantity</v>
-      </c>
-      <c r="V1" t="str">
-        <v>sales_amt</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2399,30 +2395,30 @@
         <v>99.9</v>
       </c>
       <c r="H2" cm="1">
-        <f t="array" ref="H2:H16">_xlfn.SORTBY(dm_sales_sort[trans_id], dm_sales_sort[sales_amt], -1)</f>
+        <f t="array" ref="H2:M16">_xlfn.SORTBY(dm_sales_sort[], dm_sales_sort[emp_last], -1, dm_sales_sort[product], 1)</f>
+        <v>13</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Phyllis</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Vance</v>
+      </c>
+      <c r="K2" t="str">
+        <v>Envelopes</v>
+      </c>
+      <c r="L2">
+        <v>15</v>
+      </c>
+      <c r="M2">
+        <v>74.849999999999994</v>
+      </c>
+      <c r="O2" cm="1">
+        <f t="array" ref="O2:O16">_xlfn.SORTBY(dm_sales_sort[trans_id], dm_sales_sort[sales_amt], -1)</f>
         <v>4</v>
       </c>
-      <c r="Q2" cm="1">
-        <f t="array" ref="Q2:V16">_xlfn.SORTBY(dm_sales_sort[], dm_sales_sort[emp_last], -1, dm_sales_sort[product], 1)</f>
-        <v>13</v>
-      </c>
-      <c r="R2" t="str">
-        <v>Phyllis</v>
-      </c>
-      <c r="S2" t="str">
-        <v>Vance</v>
-      </c>
-      <c r="T2" t="str">
-        <v>Envelopes</v>
-      </c>
-      <c r="U2">
-        <v>15</v>
-      </c>
-      <c r="V2">
-        <v>74.849999999999994</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2442,28 +2438,28 @@
         <v>12.45</v>
       </c>
       <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Phyllis</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Vance</v>
+      </c>
+      <c r="K3" t="str">
+        <v>Printer Ink</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>99.95</v>
+      </c>
+      <c r="O3">
         <v>9</v>
       </c>
-      <c r="Q3">
-        <v>8</v>
-      </c>
-      <c r="R3" t="str">
-        <v>Phyllis</v>
-      </c>
-      <c r="S3" t="str">
-        <v>Vance</v>
-      </c>
-      <c r="T3" t="str">
-        <v>Printer Ink</v>
-      </c>
-      <c r="U3">
-        <v>5</v>
-      </c>
-      <c r="V3">
-        <v>99.95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2483,28 +2479,28 @@
         <v>39.979999999999997</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Stanley</v>
+      </c>
+      <c r="J4" t="str">
+        <v>Hudson</v>
+      </c>
+      <c r="K4" t="str">
+        <v>Envelopes</v>
+      </c>
+      <c r="L4">
+        <v>15</v>
+      </c>
+      <c r="M4">
+        <v>149.85</v>
+      </c>
+      <c r="O4">
         <v>8</v>
       </c>
-      <c r="Q4">
-        <v>4</v>
-      </c>
-      <c r="R4" t="str">
-        <v>Stanley</v>
-      </c>
-      <c r="S4" t="str">
-        <v>Hudson</v>
-      </c>
-      <c r="T4" t="str">
-        <v>Envelopes</v>
-      </c>
-      <c r="U4">
-        <v>15</v>
-      </c>
-      <c r="V4">
-        <v>149.85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2524,28 +2520,28 @@
         <v>149.85</v>
       </c>
       <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Stanley</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Hudson</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Rubber bands</v>
+      </c>
+      <c r="L5">
+        <v>60</v>
+      </c>
+      <c r="M5">
+        <v>14.94</v>
+      </c>
+      <c r="O5">
         <v>1</v>
       </c>
-      <c r="Q5">
-        <v>15</v>
-      </c>
-      <c r="R5" t="str">
-        <v>Stanley</v>
-      </c>
-      <c r="S5" t="str">
-        <v>Hudson</v>
-      </c>
-      <c r="T5" t="str">
-        <v>Rubber bands</v>
-      </c>
-      <c r="U5">
-        <v>60</v>
-      </c>
-      <c r="V5">
-        <v>14.94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2565,28 +2561,28 @@
         <v>14.97</v>
       </c>
       <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Jim</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Halpert</v>
+      </c>
+      <c r="K6" t="str">
+        <v>Copy Paper</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>99.9</v>
+      </c>
+      <c r="O6">
         <v>6</v>
       </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6" t="str">
-        <v>Jim</v>
-      </c>
-      <c r="S6" t="str">
-        <v>Halpert</v>
-      </c>
-      <c r="T6" t="str">
-        <v>Copy Paper</v>
-      </c>
-      <c r="U6">
-        <v>10</v>
-      </c>
-      <c r="V6">
-        <v>99.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2606,28 +2602,28 @@
         <v>79.92</v>
       </c>
       <c r="H7">
-        <v>12</v>
-      </c>
-      <c r="Q7">
         <v>6</v>
       </c>
-      <c r="R7" t="str">
+      <c r="I7" t="str">
         <v>Pam</v>
       </c>
-      <c r="S7" t="str">
+      <c r="J7" t="str">
         <v>Halpert</v>
       </c>
-      <c r="T7" t="str">
+      <c r="K7" t="str">
         <v>Copy Paper</v>
       </c>
-      <c r="U7">
+      <c r="L7">
         <v>8</v>
       </c>
-      <c r="V7">
+      <c r="M7">
         <v>79.92</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="O7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2647,28 +2643,28 @@
         <v>24.9</v>
       </c>
       <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Jim</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Halpert</v>
+      </c>
+      <c r="K8" t="str">
+        <v>Envelopes</v>
+      </c>
+      <c r="L8">
+        <v>12</v>
+      </c>
+      <c r="M8">
+        <v>119.88</v>
+      </c>
+      <c r="O8">
         <v>13</v>
       </c>
-      <c r="Q8">
-        <v>9</v>
-      </c>
-      <c r="R8" t="str">
-        <v>Jim</v>
-      </c>
-      <c r="S8" t="str">
-        <v>Halpert</v>
-      </c>
-      <c r="T8" t="str">
-        <v>Envelopes</v>
-      </c>
-      <c r="U8">
-        <v>12</v>
-      </c>
-      <c r="V8">
-        <v>119.88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2688,28 +2684,28 @@
         <v>99.95</v>
       </c>
       <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Jim</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Halpert</v>
+      </c>
+      <c r="K9" t="str">
+        <v>Legal Pads</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>14.97</v>
+      </c>
+      <c r="O9">
         <v>14</v>
       </c>
-      <c r="Q9">
-        <v>5</v>
-      </c>
-      <c r="R9" t="str">
-        <v>Jim</v>
-      </c>
-      <c r="S9" t="str">
-        <v>Halpert</v>
-      </c>
-      <c r="T9" t="str">
-        <v>Legal Pads</v>
-      </c>
-      <c r="U9">
-        <v>3</v>
-      </c>
-      <c r="V9">
-        <v>14.97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2729,28 +2725,28 @@
         <v>119.88</v>
       </c>
       <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Pam</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Halpert</v>
+      </c>
+      <c r="K10" t="str">
+        <v>Legal Pads</v>
+      </c>
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <v>17.43</v>
+      </c>
+      <c r="O10">
         <v>3</v>
       </c>
-      <c r="Q10">
-        <v>10</v>
-      </c>
-      <c r="R10" t="str">
-        <v>Pam</v>
-      </c>
-      <c r="S10" t="str">
-        <v>Halpert</v>
-      </c>
-      <c r="T10" t="str">
-        <v>Legal Pads</v>
-      </c>
-      <c r="U10">
-        <v>7</v>
-      </c>
-      <c r="V10">
-        <v>17.43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2770,28 +2766,28 @@
         <v>17.43</v>
       </c>
       <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Jim</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Halpert</v>
+      </c>
+      <c r="K11" t="str">
+        <v>Printer Ink</v>
+      </c>
+      <c r="L11">
+        <v>8</v>
+      </c>
+      <c r="M11">
+        <v>79.92</v>
+      </c>
+      <c r="O11">
         <v>11</v>
       </c>
-      <c r="Q11">
-        <v>12</v>
-      </c>
-      <c r="R11" t="str">
-        <v>Jim</v>
-      </c>
-      <c r="S11" t="str">
-        <v>Halpert</v>
-      </c>
-      <c r="T11" t="str">
-        <v>Printer Ink</v>
-      </c>
-      <c r="U11">
-        <v>8</v>
-      </c>
-      <c r="V11">
-        <v>79.92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2811,28 +2807,28 @@
         <v>39.96</v>
       </c>
       <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Pam</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Halpert</v>
+      </c>
+      <c r="K12" t="str">
+        <v>Sticky Notes</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>12.45</v>
+      </c>
+      <c r="O12">
         <v>7</v>
       </c>
-      <c r="Q12">
-        <v>2</v>
-      </c>
-      <c r="R12" t="str">
-        <v>Pam</v>
-      </c>
-      <c r="S12" t="str">
-        <v>Halpert</v>
-      </c>
-      <c r="T12" t="str">
-        <v>Sticky Notes</v>
-      </c>
-      <c r="U12">
-        <v>5</v>
-      </c>
-      <c r="V12">
-        <v>12.45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2852,28 +2848,28 @@
         <v>79.92</v>
       </c>
       <c r="H13">
+        <v>11</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Andy</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Bernard</v>
+      </c>
+      <c r="K13" t="str">
+        <v>Copy Paper</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>39.96</v>
+      </c>
+      <c r="O13">
         <v>10</v>
       </c>
-      <c r="Q13">
-        <v>11</v>
-      </c>
-      <c r="R13" t="str">
-        <v>Andy</v>
-      </c>
-      <c r="S13" t="str">
-        <v>Bernard</v>
-      </c>
-      <c r="T13" t="str">
-        <v>Copy Paper</v>
-      </c>
-      <c r="U13">
-        <v>4</v>
-      </c>
-      <c r="V13">
-        <v>39.96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2893,28 +2889,28 @@
         <v>74.849999999999994</v>
       </c>
       <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Andy</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Bernard</v>
+      </c>
+      <c r="K14" t="str">
+        <v>File folders</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14">
+        <v>24.9</v>
+      </c>
+      <c r="O14">
         <v>5</v>
       </c>
-      <c r="Q14">
-        <v>7</v>
-      </c>
-      <c r="R14" t="str">
-        <v>Andy</v>
-      </c>
-      <c r="S14" t="str">
-        <v>Bernard</v>
-      </c>
-      <c r="T14" t="str">
-        <v>File folders</v>
-      </c>
-      <c r="U14">
-        <v>10</v>
-      </c>
-      <c r="V14">
-        <v>24.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2934,28 +2930,28 @@
         <v>59.97</v>
       </c>
       <c r="H15">
+        <v>14</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Andy</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Bernard</v>
+      </c>
+      <c r="K15" t="str">
+        <v>Legal Pads</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>59.97</v>
+      </c>
+      <c r="O15">
         <v>15</v>
       </c>
-      <c r="Q15">
-        <v>14</v>
-      </c>
-      <c r="R15" t="str">
-        <v>Andy</v>
-      </c>
-      <c r="S15" t="str">
-        <v>Bernard</v>
-      </c>
-      <c r="T15" t="str">
-        <v>Legal Pads</v>
-      </c>
-      <c r="U15">
-        <v>3</v>
-      </c>
-      <c r="V15">
-        <v>59.97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2975,668 +2971,668 @@
         <v>14.94</v>
       </c>
       <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16" t="str">
+        <v>Andy</v>
+      </c>
+      <c r="J16" t="str">
+        <v>Bernard</v>
+      </c>
+      <c r="K16" t="str">
+        <v>Printer Ink</v>
+      </c>
+      <c r="L16">
         <v>2</v>
       </c>
-      <c r="Q16">
+      <c r="M16">
+        <v>39.979999999999997</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H19" t="str" cm="1">
+        <f t="array" ref="H19:M19">dm_sales_sort[#Headers]</f>
+        <v>trans_id</v>
+      </c>
+      <c r="I19" t="str">
+        <v>emp_first</v>
+      </c>
+      <c r="J19" t="str">
+        <v>emp_last</v>
+      </c>
+      <c r="K19" t="str">
+        <v>product</v>
+      </c>
+      <c r="L19" t="str">
+        <v>quantity</v>
+      </c>
+      <c r="M19" t="str">
+        <v>sales_amt</v>
+      </c>
+    </row>
+    <row r="20" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H20" cm="1">
+        <f t="array" ref="H20:M34">_xlfn._xlws.SORT(dm_sales_sort[], MATCH("quantity", dm_sales_sort[#Headers]), -1)</f>
+        <v>15</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Stanley</v>
+      </c>
+      <c r="J20" t="str">
+        <v>Hudson</v>
+      </c>
+      <c r="K20" t="str">
+        <v>Rubber bands</v>
+      </c>
+      <c r="L20">
+        <v>60</v>
+      </c>
+      <c r="M20">
+        <v>14.94</v>
+      </c>
+    </row>
+    <row r="21" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21" t="str">
+        <v>Stanley</v>
+      </c>
+      <c r="J21" t="str">
+        <v>Hudson</v>
+      </c>
+      <c r="K21" t="str">
+        <v>Envelopes</v>
+      </c>
+      <c r="L21">
+        <v>15</v>
+      </c>
+      <c r="M21">
+        <v>149.85</v>
+      </c>
+    </row>
+    <row r="22" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H22">
+        <v>13</v>
+      </c>
+      <c r="I22" t="str">
+        <v>Phyllis</v>
+      </c>
+      <c r="J22" t="str">
+        <v>Vance</v>
+      </c>
+      <c r="K22" t="str">
+        <v>Envelopes</v>
+      </c>
+      <c r="L22">
+        <v>15</v>
+      </c>
+      <c r="M22">
+        <v>74.849999999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H23">
+        <v>9</v>
+      </c>
+      <c r="I23" t="str">
+        <v>Jim</v>
+      </c>
+      <c r="J23" t="str">
+        <v>Halpert</v>
+      </c>
+      <c r="K23" t="str">
+        <v>Envelopes</v>
+      </c>
+      <c r="L23">
+        <v>12</v>
+      </c>
+      <c r="M23">
+        <v>119.88</v>
+      </c>
+    </row>
+    <row r="24" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="str">
+        <v>Jim</v>
+      </c>
+      <c r="J24" t="str">
+        <v>Halpert</v>
+      </c>
+      <c r="K24" t="str">
+        <v>Copy Paper</v>
+      </c>
+      <c r="L24">
+        <v>10</v>
+      </c>
+      <c r="M24">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="25" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H25">
+        <v>7</v>
+      </c>
+      <c r="I25" t="str">
+        <v>Andy</v>
+      </c>
+      <c r="J25" t="str">
+        <v>Bernard</v>
+      </c>
+      <c r="K25" t="str">
+        <v>File folders</v>
+      </c>
+      <c r="L25">
+        <v>10</v>
+      </c>
+      <c r="M25">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="26" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26" t="str">
+        <v>Pam</v>
+      </c>
+      <c r="J26" t="str">
+        <v>Halpert</v>
+      </c>
+      <c r="K26" t="str">
+        <v>Copy Paper</v>
+      </c>
+      <c r="L26">
+        <v>8</v>
+      </c>
+      <c r="M26">
+        <v>79.92</v>
+      </c>
+    </row>
+    <row r="27" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H27">
+        <v>12</v>
+      </c>
+      <c r="I27" t="str">
+        <v>Jim</v>
+      </c>
+      <c r="J27" t="str">
+        <v>Halpert</v>
+      </c>
+      <c r="K27" t="str">
+        <v>Printer Ink</v>
+      </c>
+      <c r="L27">
+        <v>8</v>
+      </c>
+      <c r="M27">
+        <v>79.92</v>
+      </c>
+    </row>
+    <row r="28" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="I28" t="str">
+        <v>Pam</v>
+      </c>
+      <c r="J28" t="str">
+        <v>Halpert</v>
+      </c>
+      <c r="K28" t="str">
+        <v>Legal Pads</v>
+      </c>
+      <c r="L28">
+        <v>7</v>
+      </c>
+      <c r="M28">
+        <v>17.43</v>
+      </c>
+    </row>
+    <row r="29" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29" t="str">
+        <v>Pam</v>
+      </c>
+      <c r="J29" t="str">
+        <v>Halpert</v>
+      </c>
+      <c r="K29" t="str">
+        <v>Sticky Notes</v>
+      </c>
+      <c r="L29">
+        <v>5</v>
+      </c>
+      <c r="M29">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="30" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H30">
+        <v>8</v>
+      </c>
+      <c r="I30" t="str">
+        <v>Phyllis</v>
+      </c>
+      <c r="J30" t="str">
+        <v>Vance</v>
+      </c>
+      <c r="K30" t="str">
+        <v>Printer Ink</v>
+      </c>
+      <c r="L30">
+        <v>5</v>
+      </c>
+      <c r="M30">
+        <v>99.95</v>
+      </c>
+    </row>
+    <row r="31" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H31">
+        <v>11</v>
+      </c>
+      <c r="I31" t="str">
+        <v>Andy</v>
+      </c>
+      <c r="J31" t="str">
+        <v>Bernard</v>
+      </c>
+      <c r="K31" t="str">
+        <v>Copy Paper</v>
+      </c>
+      <c r="L31">
+        <v>4</v>
+      </c>
+      <c r="M31">
+        <v>39.96</v>
+      </c>
+    </row>
+    <row r="32" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32" t="str">
+        <v>Jim</v>
+      </c>
+      <c r="J32" t="str">
+        <v>Halpert</v>
+      </c>
+      <c r="K32" t="str">
+        <v>Legal Pads</v>
+      </c>
+      <c r="L32">
         <v>3</v>
       </c>
-      <c r="R16" t="str">
+      <c r="M32">
+        <v>14.97</v>
+      </c>
+    </row>
+    <row r="33" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H33">
+        <v>14</v>
+      </c>
+      <c r="I33" t="str">
         <v>Andy</v>
       </c>
-      <c r="S16" t="str">
+      <c r="J33" t="str">
         <v>Bernard</v>
       </c>
-      <c r="T16" t="str">
+      <c r="K33" t="str">
+        <v>Legal Pads</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <v>59.97</v>
+      </c>
+    </row>
+    <row r="34" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34" t="str">
+        <v>Andy</v>
+      </c>
+      <c r="J34" t="str">
+        <v>Bernard</v>
+      </c>
+      <c r="K34" t="str">
         <v>Printer Ink</v>
       </c>
-      <c r="U16">
+      <c r="L34">
         <v>2</v>
       </c>
-      <c r="V16">
+      <c r="M34">
         <v>39.979999999999997</v>
       </c>
     </row>
-    <row r="29" spans="17:22" x14ac:dyDescent="0.45">
-      <c r="Q29" t="str" cm="1">
-        <f t="array" ref="Q29:V29">dm_sales_sort[#Headers]</f>
+    <row r="38" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H38" t="str" cm="1">
+        <f t="array" ref="H38:M38">dm_sales_sort[#Headers]</f>
         <v>trans_id</v>
       </c>
-      <c r="R29" t="str">
+      <c r="I38" t="str">
         <v>emp_first</v>
       </c>
-      <c r="S29" t="str">
+      <c r="J38" t="str">
         <v>emp_last</v>
       </c>
-      <c r="T29" t="str">
+      <c r="K38" t="str">
         <v>product</v>
       </c>
-      <c r="U29" t="str">
+      <c r="L38" t="str">
         <v>quantity</v>
       </c>
-      <c r="V29" t="str">
+      <c r="M38" t="str">
         <v>sales_amt</v>
       </c>
     </row>
-    <row r="30" spans="17:22" x14ac:dyDescent="0.45">
-      <c r="Q30" cm="1">
-        <f t="array" ref="Q30:V44">_xlfn._xlws.SORT(dm_sales_sort[], MATCH("quantity", dm_sales_sort[#Headers]), -1)</f>
+    <row r="39" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H39" cm="1">
+        <f t="array" ref="H39:M53">_xlfn.SORTBY(dm_sales_sort[], dm_sales_sort[sales_amt], -1)</f>
+        <v>4</v>
+      </c>
+      <c r="I39" t="str">
+        <v>Stanley</v>
+      </c>
+      <c r="J39" t="str">
+        <v>Hudson</v>
+      </c>
+      <c r="K39" t="str">
+        <v>Envelopes</v>
+      </c>
+      <c r="L39">
         <v>15</v>
       </c>
-      <c r="R30" t="str">
+      <c r="M39">
+        <v>149.85</v>
+      </c>
+    </row>
+    <row r="40" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H40">
+        <v>9</v>
+      </c>
+      <c r="I40" t="str">
+        <v>Jim</v>
+      </c>
+      <c r="J40" t="str">
+        <v>Halpert</v>
+      </c>
+      <c r="K40" t="str">
+        <v>Envelopes</v>
+      </c>
+      <c r="L40">
+        <v>12</v>
+      </c>
+      <c r="M40">
+        <v>119.88</v>
+      </c>
+    </row>
+    <row r="41" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H41">
+        <v>8</v>
+      </c>
+      <c r="I41" t="str">
+        <v>Phyllis</v>
+      </c>
+      <c r="J41" t="str">
+        <v>Vance</v>
+      </c>
+      <c r="K41" t="str">
+        <v>Printer Ink</v>
+      </c>
+      <c r="L41">
+        <v>5</v>
+      </c>
+      <c r="M41">
+        <v>99.95</v>
+      </c>
+    </row>
+    <row r="42" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="str">
+        <v>Jim</v>
+      </c>
+      <c r="J42" t="str">
+        <v>Halpert</v>
+      </c>
+      <c r="K42" t="str">
+        <v>Copy Paper</v>
+      </c>
+      <c r="L42">
+        <v>10</v>
+      </c>
+      <c r="M42">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="43" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H43">
+        <v>6</v>
+      </c>
+      <c r="I43" t="str">
+        <v>Pam</v>
+      </c>
+      <c r="J43" t="str">
+        <v>Halpert</v>
+      </c>
+      <c r="K43" t="str">
+        <v>Copy Paper</v>
+      </c>
+      <c r="L43">
+        <v>8</v>
+      </c>
+      <c r="M43">
+        <v>79.92</v>
+      </c>
+    </row>
+    <row r="44" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H44">
+        <v>12</v>
+      </c>
+      <c r="I44" t="str">
+        <v>Jim</v>
+      </c>
+      <c r="J44" t="str">
+        <v>Halpert</v>
+      </c>
+      <c r="K44" t="str">
+        <v>Printer Ink</v>
+      </c>
+      <c r="L44">
+        <v>8</v>
+      </c>
+      <c r="M44">
+        <v>79.92</v>
+      </c>
+    </row>
+    <row r="45" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H45">
+        <v>13</v>
+      </c>
+      <c r="I45" t="str">
+        <v>Phyllis</v>
+      </c>
+      <c r="J45" t="str">
+        <v>Vance</v>
+      </c>
+      <c r="K45" t="str">
+        <v>Envelopes</v>
+      </c>
+      <c r="L45">
+        <v>15</v>
+      </c>
+      <c r="M45">
+        <v>74.849999999999994</v>
+      </c>
+    </row>
+    <row r="46" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H46">
+        <v>14</v>
+      </c>
+      <c r="I46" t="str">
+        <v>Andy</v>
+      </c>
+      <c r="J46" t="str">
+        <v>Bernard</v>
+      </c>
+      <c r="K46" t="str">
+        <v>Legal Pads</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="M46">
+        <v>59.97</v>
+      </c>
+    </row>
+    <row r="47" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47" t="str">
+        <v>Andy</v>
+      </c>
+      <c r="J47" t="str">
+        <v>Bernard</v>
+      </c>
+      <c r="K47" t="str">
+        <v>Printer Ink</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>39.979999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H48">
+        <v>11</v>
+      </c>
+      <c r="I48" t="str">
+        <v>Andy</v>
+      </c>
+      <c r="J48" t="str">
+        <v>Bernard</v>
+      </c>
+      <c r="K48" t="str">
+        <v>Copy Paper</v>
+      </c>
+      <c r="L48">
+        <v>4</v>
+      </c>
+      <c r="M48">
+        <v>39.96</v>
+      </c>
+    </row>
+    <row r="49" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H49">
+        <v>7</v>
+      </c>
+      <c r="I49" t="str">
+        <v>Andy</v>
+      </c>
+      <c r="J49" t="str">
+        <v>Bernard</v>
+      </c>
+      <c r="K49" t="str">
+        <v>File folders</v>
+      </c>
+      <c r="L49">
+        <v>10</v>
+      </c>
+      <c r="M49">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="50" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H50">
+        <v>10</v>
+      </c>
+      <c r="I50" t="str">
+        <v>Pam</v>
+      </c>
+      <c r="J50" t="str">
+        <v>Halpert</v>
+      </c>
+      <c r="K50" t="str">
+        <v>Legal Pads</v>
+      </c>
+      <c r="L50">
+        <v>7</v>
+      </c>
+      <c r="M50">
+        <v>17.43</v>
+      </c>
+    </row>
+    <row r="51" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H51">
+        <v>5</v>
+      </c>
+      <c r="I51" t="str">
+        <v>Jim</v>
+      </c>
+      <c r="J51" t="str">
+        <v>Halpert</v>
+      </c>
+      <c r="K51" t="str">
+        <v>Legal Pads</v>
+      </c>
+      <c r="L51">
+        <v>3</v>
+      </c>
+      <c r="M51">
+        <v>14.97</v>
+      </c>
+    </row>
+    <row r="52" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H52">
+        <v>15</v>
+      </c>
+      <c r="I52" t="str">
         <v>Stanley</v>
       </c>
-      <c r="S30" t="str">
+      <c r="J52" t="str">
         <v>Hudson</v>
       </c>
-      <c r="T30" t="str">
+      <c r="K52" t="str">
         <v>Rubber bands</v>
       </c>
-      <c r="U30">
+      <c r="L52">
         <v>60</v>
       </c>
-      <c r="V30">
+      <c r="M52">
         <v>14.94</v>
       </c>
     </row>
-    <row r="31" spans="17:22" x14ac:dyDescent="0.45">
-      <c r="Q31">
-        <v>4</v>
-      </c>
-      <c r="R31" t="str">
-        <v>Stanley</v>
-      </c>
-      <c r="S31" t="str">
-        <v>Hudson</v>
-      </c>
-      <c r="T31" t="str">
-        <v>Envelopes</v>
-      </c>
-      <c r="U31">
-        <v>15</v>
-      </c>
-      <c r="V31">
-        <v>149.85</v>
-      </c>
-    </row>
-    <row r="32" spans="17:22" x14ac:dyDescent="0.45">
-      <c r="Q32">
-        <v>13</v>
-      </c>
-      <c r="R32" t="str">
-        <v>Phyllis</v>
-      </c>
-      <c r="S32" t="str">
-        <v>Vance</v>
-      </c>
-      <c r="T32" t="str">
-        <v>Envelopes</v>
-      </c>
-      <c r="U32">
-        <v>15</v>
-      </c>
-      <c r="V32">
-        <v>74.849999999999994</v>
-      </c>
-    </row>
-    <row r="33" spans="17:22" x14ac:dyDescent="0.45">
-      <c r="Q33">
-        <v>9</v>
-      </c>
-      <c r="R33" t="str">
-        <v>Jim</v>
-      </c>
-      <c r="S33" t="str">
+    <row r="53" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53" t="str">
+        <v>Pam</v>
+      </c>
+      <c r="J53" t="str">
         <v>Halpert</v>
       </c>
-      <c r="T33" t="str">
-        <v>Envelopes</v>
-      </c>
-      <c r="U33">
-        <v>12</v>
-      </c>
-      <c r="V33">
-        <v>119.88</v>
-      </c>
-    </row>
-    <row r="34" spans="17:22" x14ac:dyDescent="0.45">
-      <c r="Q34">
-        <v>1</v>
-      </c>
-      <c r="R34" t="str">
-        <v>Jim</v>
-      </c>
-      <c r="S34" t="str">
-        <v>Halpert</v>
-      </c>
-      <c r="T34" t="str">
-        <v>Copy Paper</v>
-      </c>
-      <c r="U34">
-        <v>10</v>
-      </c>
-      <c r="V34">
-        <v>99.9</v>
-      </c>
-    </row>
-    <row r="35" spans="17:22" x14ac:dyDescent="0.45">
-      <c r="Q35">
-        <v>7</v>
-      </c>
-      <c r="R35" t="str">
-        <v>Andy</v>
-      </c>
-      <c r="S35" t="str">
-        <v>Bernard</v>
-      </c>
-      <c r="T35" t="str">
-        <v>File folders</v>
-      </c>
-      <c r="U35">
-        <v>10</v>
-      </c>
-      <c r="V35">
-        <v>24.9</v>
-      </c>
-    </row>
-    <row r="36" spans="17:22" x14ac:dyDescent="0.45">
-      <c r="Q36">
-        <v>6</v>
-      </c>
-      <c r="R36" t="str">
-        <v>Pam</v>
-      </c>
-      <c r="S36" t="str">
-        <v>Halpert</v>
-      </c>
-      <c r="T36" t="str">
-        <v>Copy Paper</v>
-      </c>
-      <c r="U36">
-        <v>8</v>
-      </c>
-      <c r="V36">
-        <v>79.92</v>
-      </c>
-    </row>
-    <row r="37" spans="17:22" x14ac:dyDescent="0.45">
-      <c r="Q37">
-        <v>12</v>
-      </c>
-      <c r="R37" t="str">
-        <v>Jim</v>
-      </c>
-      <c r="S37" t="str">
-        <v>Halpert</v>
-      </c>
-      <c r="T37" t="str">
-        <v>Printer Ink</v>
-      </c>
-      <c r="U37">
-        <v>8</v>
-      </c>
-      <c r="V37">
-        <v>79.92</v>
-      </c>
-    </row>
-    <row r="38" spans="17:22" x14ac:dyDescent="0.45">
-      <c r="Q38">
-        <v>10</v>
-      </c>
-      <c r="R38" t="str">
-        <v>Pam</v>
-      </c>
-      <c r="S38" t="str">
-        <v>Halpert</v>
-      </c>
-      <c r="T38" t="str">
-        <v>Legal Pads</v>
-      </c>
-      <c r="U38">
-        <v>7</v>
-      </c>
-      <c r="V38">
-        <v>17.43</v>
-      </c>
-    </row>
-    <row r="39" spans="17:22" x14ac:dyDescent="0.45">
-      <c r="Q39">
-        <v>2</v>
-      </c>
-      <c r="R39" t="str">
-        <v>Pam</v>
-      </c>
-      <c r="S39" t="str">
-        <v>Halpert</v>
-      </c>
-      <c r="T39" t="str">
+      <c r="K53" t="str">
         <v>Sticky Notes</v>
       </c>
-      <c r="U39">
+      <c r="L53">
         <v>5</v>
       </c>
-      <c r="V39">
-        <v>12.45</v>
-      </c>
-    </row>
-    <row r="40" spans="17:22" x14ac:dyDescent="0.45">
-      <c r="Q40">
-        <v>8</v>
-      </c>
-      <c r="R40" t="str">
-        <v>Phyllis</v>
-      </c>
-      <c r="S40" t="str">
-        <v>Vance</v>
-      </c>
-      <c r="T40" t="str">
-        <v>Printer Ink</v>
-      </c>
-      <c r="U40">
-        <v>5</v>
-      </c>
-      <c r="V40">
-        <v>99.95</v>
-      </c>
-    </row>
-    <row r="41" spans="17:22" x14ac:dyDescent="0.45">
-      <c r="Q41">
-        <v>11</v>
-      </c>
-      <c r="R41" t="str">
-        <v>Andy</v>
-      </c>
-      <c r="S41" t="str">
-        <v>Bernard</v>
-      </c>
-      <c r="T41" t="str">
-        <v>Copy Paper</v>
-      </c>
-      <c r="U41">
-        <v>4</v>
-      </c>
-      <c r="V41">
-        <v>39.96</v>
-      </c>
-    </row>
-    <row r="42" spans="17:22" x14ac:dyDescent="0.45">
-      <c r="Q42">
-        <v>5</v>
-      </c>
-      <c r="R42" t="str">
-        <v>Jim</v>
-      </c>
-      <c r="S42" t="str">
-        <v>Halpert</v>
-      </c>
-      <c r="T42" t="str">
-        <v>Legal Pads</v>
-      </c>
-      <c r="U42">
-        <v>3</v>
-      </c>
-      <c r="V42">
-        <v>14.97</v>
-      </c>
-    </row>
-    <row r="43" spans="17:22" x14ac:dyDescent="0.45">
-      <c r="Q43">
-        <v>14</v>
-      </c>
-      <c r="R43" t="str">
-        <v>Andy</v>
-      </c>
-      <c r="S43" t="str">
-        <v>Bernard</v>
-      </c>
-      <c r="T43" t="str">
-        <v>Legal Pads</v>
-      </c>
-      <c r="U43">
-        <v>3</v>
-      </c>
-      <c r="V43">
-        <v>59.97</v>
-      </c>
-    </row>
-    <row r="44" spans="17:22" x14ac:dyDescent="0.45">
-      <c r="Q44">
-        <v>3</v>
-      </c>
-      <c r="R44" t="str">
-        <v>Andy</v>
-      </c>
-      <c r="S44" t="str">
-        <v>Bernard</v>
-      </c>
-      <c r="T44" t="str">
-        <v>Printer Ink</v>
-      </c>
-      <c r="U44">
-        <v>2</v>
-      </c>
-      <c r="V44">
-        <v>39.979999999999997</v>
-      </c>
-    </row>
-    <row r="48" spans="17:22" x14ac:dyDescent="0.45">
-      <c r="Q48" t="str" cm="1">
-        <f t="array" ref="Q48:V48">dm_sales_sort[#Headers]</f>
-        <v>trans_id</v>
-      </c>
-      <c r="R48" t="str">
-        <v>emp_first</v>
-      </c>
-      <c r="S48" t="str">
-        <v>emp_last</v>
-      </c>
-      <c r="T48" t="str">
-        <v>product</v>
-      </c>
-      <c r="U48" t="str">
-        <v>quantity</v>
-      </c>
-      <c r="V48" t="str">
-        <v>sales_amt</v>
-      </c>
-    </row>
-    <row r="49" spans="17:22" x14ac:dyDescent="0.45">
-      <c r="Q49" cm="1">
-        <f t="array" ref="Q49:V63">_xlfn.SORTBY(dm_sales_sort[], dm_sales_sort[sales_amt], -1)</f>
-        <v>4</v>
-      </c>
-      <c r="R49" t="str">
-        <v>Stanley</v>
-      </c>
-      <c r="S49" t="str">
-        <v>Hudson</v>
-      </c>
-      <c r="T49" t="str">
-        <v>Envelopes</v>
-      </c>
-      <c r="U49">
-        <v>15</v>
-      </c>
-      <c r="V49">
-        <v>149.85</v>
-      </c>
-    </row>
-    <row r="50" spans="17:22" x14ac:dyDescent="0.45">
-      <c r="Q50">
-        <v>9</v>
-      </c>
-      <c r="R50" t="str">
-        <v>Jim</v>
-      </c>
-      <c r="S50" t="str">
-        <v>Halpert</v>
-      </c>
-      <c r="T50" t="str">
-        <v>Envelopes</v>
-      </c>
-      <c r="U50">
-        <v>12</v>
-      </c>
-      <c r="V50">
-        <v>119.88</v>
-      </c>
-    </row>
-    <row r="51" spans="17:22" x14ac:dyDescent="0.45">
-      <c r="Q51">
-        <v>8</v>
-      </c>
-      <c r="R51" t="str">
-        <v>Phyllis</v>
-      </c>
-      <c r="S51" t="str">
-        <v>Vance</v>
-      </c>
-      <c r="T51" t="str">
-        <v>Printer Ink</v>
-      </c>
-      <c r="U51">
-        <v>5</v>
-      </c>
-      <c r="V51">
-        <v>99.95</v>
-      </c>
-    </row>
-    <row r="52" spans="17:22" x14ac:dyDescent="0.45">
-      <c r="Q52">
-        <v>1</v>
-      </c>
-      <c r="R52" t="str">
-        <v>Jim</v>
-      </c>
-      <c r="S52" t="str">
-        <v>Halpert</v>
-      </c>
-      <c r="T52" t="str">
-        <v>Copy Paper</v>
-      </c>
-      <c r="U52">
-        <v>10</v>
-      </c>
-      <c r="V52">
-        <v>99.9</v>
-      </c>
-    </row>
-    <row r="53" spans="17:22" x14ac:dyDescent="0.45">
-      <c r="Q53">
-        <v>6</v>
-      </c>
-      <c r="R53" t="str">
-        <v>Pam</v>
-      </c>
-      <c r="S53" t="str">
-        <v>Halpert</v>
-      </c>
-      <c r="T53" t="str">
-        <v>Copy Paper</v>
-      </c>
-      <c r="U53">
-        <v>8</v>
-      </c>
-      <c r="V53">
-        <v>79.92</v>
-      </c>
-    </row>
-    <row r="54" spans="17:22" x14ac:dyDescent="0.45">
-      <c r="Q54">
-        <v>12</v>
-      </c>
-      <c r="R54" t="str">
-        <v>Jim</v>
-      </c>
-      <c r="S54" t="str">
-        <v>Halpert</v>
-      </c>
-      <c r="T54" t="str">
-        <v>Printer Ink</v>
-      </c>
-      <c r="U54">
-        <v>8</v>
-      </c>
-      <c r="V54">
-        <v>79.92</v>
-      </c>
-    </row>
-    <row r="55" spans="17:22" x14ac:dyDescent="0.45">
-      <c r="Q55">
-        <v>13</v>
-      </c>
-      <c r="R55" t="str">
-        <v>Phyllis</v>
-      </c>
-      <c r="S55" t="str">
-        <v>Vance</v>
-      </c>
-      <c r="T55" t="str">
-        <v>Envelopes</v>
-      </c>
-      <c r="U55">
-        <v>15</v>
-      </c>
-      <c r="V55">
-        <v>74.849999999999994</v>
-      </c>
-    </row>
-    <row r="56" spans="17:22" x14ac:dyDescent="0.45">
-      <c r="Q56">
-        <v>14</v>
-      </c>
-      <c r="R56" t="str">
-        <v>Andy</v>
-      </c>
-      <c r="S56" t="str">
-        <v>Bernard</v>
-      </c>
-      <c r="T56" t="str">
-        <v>Legal Pads</v>
-      </c>
-      <c r="U56">
-        <v>3</v>
-      </c>
-      <c r="V56">
-        <v>59.97</v>
-      </c>
-    </row>
-    <row r="57" spans="17:22" x14ac:dyDescent="0.45">
-      <c r="Q57">
-        <v>3</v>
-      </c>
-      <c r="R57" t="str">
-        <v>Andy</v>
-      </c>
-      <c r="S57" t="str">
-        <v>Bernard</v>
-      </c>
-      <c r="T57" t="str">
-        <v>Printer Ink</v>
-      </c>
-      <c r="U57">
-        <v>2</v>
-      </c>
-      <c r="V57">
-        <v>39.979999999999997</v>
-      </c>
-    </row>
-    <row r="58" spans="17:22" x14ac:dyDescent="0.45">
-      <c r="Q58">
-        <v>11</v>
-      </c>
-      <c r="R58" t="str">
-        <v>Andy</v>
-      </c>
-      <c r="S58" t="str">
-        <v>Bernard</v>
-      </c>
-      <c r="T58" t="str">
-        <v>Copy Paper</v>
-      </c>
-      <c r="U58">
-        <v>4</v>
-      </c>
-      <c r="V58">
-        <v>39.96</v>
-      </c>
-    </row>
-    <row r="59" spans="17:22" x14ac:dyDescent="0.45">
-      <c r="Q59">
-        <v>7</v>
-      </c>
-      <c r="R59" t="str">
-        <v>Andy</v>
-      </c>
-      <c r="S59" t="str">
-        <v>Bernard</v>
-      </c>
-      <c r="T59" t="str">
-        <v>File folders</v>
-      </c>
-      <c r="U59">
-        <v>10</v>
-      </c>
-      <c r="V59">
-        <v>24.9</v>
-      </c>
-    </row>
-    <row r="60" spans="17:22" x14ac:dyDescent="0.45">
-      <c r="Q60">
-        <v>10</v>
-      </c>
-      <c r="R60" t="str">
-        <v>Pam</v>
-      </c>
-      <c r="S60" t="str">
-        <v>Halpert</v>
-      </c>
-      <c r="T60" t="str">
-        <v>Legal Pads</v>
-      </c>
-      <c r="U60">
-        <v>7</v>
-      </c>
-      <c r="V60">
-        <v>17.43</v>
-      </c>
-    </row>
-    <row r="61" spans="17:22" x14ac:dyDescent="0.45">
-      <c r="Q61">
-        <v>5</v>
-      </c>
-      <c r="R61" t="str">
-        <v>Jim</v>
-      </c>
-      <c r="S61" t="str">
-        <v>Halpert</v>
-      </c>
-      <c r="T61" t="str">
-        <v>Legal Pads</v>
-      </c>
-      <c r="U61">
-        <v>3</v>
-      </c>
-      <c r="V61">
-        <v>14.97</v>
-      </c>
-    </row>
-    <row r="62" spans="17:22" x14ac:dyDescent="0.45">
-      <c r="Q62">
-        <v>15</v>
-      </c>
-      <c r="R62" t="str">
-        <v>Stanley</v>
-      </c>
-      <c r="S62" t="str">
-        <v>Hudson</v>
-      </c>
-      <c r="T62" t="str">
-        <v>Rubber bands</v>
-      </c>
-      <c r="U62">
-        <v>60</v>
-      </c>
-      <c r="V62">
-        <v>14.94</v>
-      </c>
-    </row>
-    <row r="63" spans="17:22" x14ac:dyDescent="0.45">
-      <c r="Q63">
-        <v>2</v>
-      </c>
-      <c r="R63" t="str">
-        <v>Pam</v>
-      </c>
-      <c r="S63" t="str">
-        <v>Halpert</v>
-      </c>
-      <c r="T63" t="str">
-        <v>Sticky Notes</v>
-      </c>
-      <c r="U63">
-        <v>5</v>
-      </c>
-      <c r="V63">
+      <c r="M53">
         <v>12.45</v>
       </c>
     </row>

--- a/ch_10/ch_10_solutions.xlsx
+++ b/ch_10/ch_10_solutions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\modern-analytics-excel-book\ch_10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\modern-analytics-excel-book\ch_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A502EA2B-DEC9-420C-B0EC-0C7524B86CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BF5204-4576-4370-9EDA-61896FEAFA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="array-references" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -602,9 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886B6D4A-372A-44D5-9850-365A4A804FBA}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -665,10 +663,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A3CD22-BB7B-4305-9639-39B459C0453E}">
-  <dimension ref="A1:AJ16"/>
+  <dimension ref="A1:AR16"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -679,30 +677,39 @@
     <col min="4" max="4" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.06640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="4.53125" customWidth="1"/>
-    <col min="10" max="10" width="4.796875" customWidth="1"/>
-    <col min="11" max="11" width="6.53125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.73046875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.73046875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.53125" customWidth="1"/>
-    <col min="17" max="17" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="4.53125" customWidth="1"/>
-    <col min="25" max="25" width="19.53125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="1.73046875" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="4.53125" customWidth="1"/>
-    <col min="29" max="33" width="4.796875" customWidth="1"/>
-    <col min="34" max="34" width="4.53125" customWidth="1"/>
-    <col min="35" max="35" width="19.53125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.53125" customWidth="1"/>
+    <col min="8" max="8" width="19.53125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.53125" customWidth="1"/>
+    <col min="16" max="16" width="2.73046875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.53125" customWidth="1"/>
+    <col min="18" max="18" width="2.73046875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.53125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2.73046875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.53125" customWidth="1"/>
+    <col min="25" max="25" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="4.53125" customWidth="1"/>
+    <col min="33" max="33" width="19.53125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="1.73046875" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="4.53125" customWidth="1"/>
+    <col min="37" max="41" width="4.796875" customWidth="1"/>
+    <col min="42" max="42" width="4.53125" customWidth="1"/>
+    <col min="43" max="43" width="19.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -721,34 +728,15 @@
       <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" t="str" cm="1">
-        <f t="array" ref="Q1:V1">dm_sales[#Headers]</f>
-        <v>trans_id</v>
-      </c>
-      <c r="R1" t="str">
-        <v>emp_first</v>
-      </c>
-      <c r="S1" t="str">
-        <v>emp_last</v>
-      </c>
-      <c r="T1" t="str">
-        <v>product</v>
-      </c>
-      <c r="U1" t="str">
-        <v>quantity</v>
-      </c>
-      <c r="V1" t="str">
-        <v>sales_amt</v>
-      </c>
-      <c r="Y1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" s="5"/>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="AR1" s="5"/>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -767,62 +755,42 @@
       <c r="F2" s="3">
         <v>99.9</v>
       </c>
-      <c r="H2" cm="1">
-        <f t="array" ref="H2:H16">_xlfn.SORTBY(dm_sales[trans_id],
+      <c r="H2" t="str" cm="1">
+        <f t="array" ref="H2:H4">_xlfn.UNIQUE(dm_sales[product], , TRUE)</f>
+        <v>Sticky Notes</v>
+      </c>
+      <c r="P2" cm="1">
+        <f t="array" ref="P2:P16">_xlfn.SORTBY(dm_sales[trans_id],
 dm_sales[sales_amt], -1)</f>
         <v>4</v>
       </c>
-      <c r="J2" cm="1">
-        <f t="array" ref="J2:O16">_xlfn.SORTBY(dm_sales[], dm_sales[sales_amt], -1)</f>
+      <c r="R2" cm="1">
+        <f t="array" ref="R2:W16">_xlfn.SORTBY(dm_sales[], dm_sales[sales_amt], -1)</f>
         <v>4</v>
       </c>
-      <c r="K2" t="str">
+      <c r="S2" t="str">
         <v>Stanley</v>
       </c>
-      <c r="L2" t="str">
+      <c r="T2" t="str">
         <v>Hudson</v>
       </c>
-      <c r="M2" t="str">
+      <c r="U2" t="str">
         <v>Envelopes</v>
       </c>
-      <c r="N2">
+      <c r="V2">
         <v>15</v>
       </c>
-      <c r="O2">
+      <c r="W2">
         <v>149.85</v>
       </c>
-      <c r="Q2" cm="1">
-        <f t="array" ref="Q2:V2">_xlfn._xlws.FILTER(dm_sales[],
-dm_sales[product] = "Sticky Notes")</f>
-        <v>2</v>
-      </c>
-      <c r="R2" t="str">
-        <v>Pam</v>
-      </c>
-      <c r="S2" t="str">
-        <v>Halpert</v>
-      </c>
-      <c r="T2" t="str">
-        <v>Sticky Notes</v>
-      </c>
-      <c r="U2">
-        <v>5</v>
-      </c>
-      <c r="V2">
-        <v>12.45</v>
-      </c>
-      <c r="Y2" t="str" cm="1">
-        <f t="array" ref="Y2:Y4">_xlfn.UNIQUE(dm_sales[product], , TRUE)</f>
-        <v>Sticky Notes</v>
-      </c>
-      <c r="AI2" t="str" cm="1">
-        <f t="array" ref="AI2">INDEX(dm_sales[product],
-MATCH(0, COUNTIF($AI$1:AI1,
+      <c r="AQ2" t="str" cm="1">
+        <f t="array" ref="AQ2">INDEX(dm_sales[product],
+MATCH(0, COUNTIF($AQ$1:AQ1,
     dm_sales[product]), 0))</f>
         <v>Copy Paper</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -841,38 +809,38 @@
       <c r="F3" s="3">
         <v>12.45</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="str">
+        <v>File folders</v>
+      </c>
+      <c r="P3">
         <v>9</v>
       </c>
-      <c r="J3">
+      <c r="R3">
         <v>9</v>
       </c>
-      <c r="K3" t="str">
+      <c r="S3" t="str">
         <v>Jim</v>
       </c>
-      <c r="L3" t="str">
+      <c r="T3" t="str">
         <v>Halpert</v>
       </c>
-      <c r="M3" t="str">
+      <c r="U3" t="str">
         <v>Envelopes</v>
       </c>
-      <c r="N3">
+      <c r="V3">
         <v>12</v>
       </c>
-      <c r="O3">
+      <c r="W3">
         <v>119.88</v>
       </c>
-      <c r="Y3" t="str">
-        <v>File folders</v>
-      </c>
-      <c r="AI3" t="str" cm="1">
-        <f t="array" ref="AI3">INDEX(dm_sales[product],
-MATCH(0, COUNTIF($AI$1:AI2,
+      <c r="AQ3" t="str" cm="1">
+        <f t="array" ref="AQ3">INDEX(dm_sales[product],
+MATCH(0, COUNTIF($AQ$1:AQ2,
     dm_sales[product]), 0))</f>
         <v>Sticky Notes</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -891,38 +859,38 @@
       <c r="F4" s="3">
         <v>39.979999999999997</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="str">
+        <v>Rubber bands</v>
+      </c>
+      <c r="P4">
         <v>8</v>
       </c>
-      <c r="J4">
+      <c r="R4">
         <v>8</v>
       </c>
-      <c r="K4" t="str">
+      <c r="S4" t="str">
         <v>Phyllis</v>
       </c>
-      <c r="L4" t="str">
+      <c r="T4" t="str">
         <v>Vance</v>
       </c>
-      <c r="M4" t="str">
+      <c r="U4" t="str">
         <v>Printer Ink</v>
       </c>
-      <c r="N4">
+      <c r="V4">
         <v>5</v>
       </c>
-      <c r="O4">
+      <c r="W4">
         <v>99.95</v>
       </c>
-      <c r="Y4" t="str">
-        <v>Rubber bands</v>
-      </c>
-      <c r="AI4" t="str" cm="1">
-        <f t="array" ref="AI4">INDEX(dm_sales[product],
-MATCH(0, COUNTIF($AI$1:AI3,
+      <c r="AQ4" t="str" cm="1">
+        <f t="array" ref="AQ4">INDEX(dm_sales[product],
+MATCH(0, COUNTIF($AQ$1:AQ3,
     dm_sales[product]), 0))</f>
         <v>Printer Ink</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -941,35 +909,35 @@
       <c r="F5" s="3">
         <v>149.85</v>
       </c>
-      <c r="H5">
+      <c r="P5">
         <v>1</v>
       </c>
-      <c r="J5">
+      <c r="R5">
         <v>1</v>
       </c>
-      <c r="K5" t="str">
+      <c r="S5" t="str">
         <v>Jim</v>
       </c>
-      <c r="L5" t="str">
+      <c r="T5" t="str">
         <v>Halpert</v>
       </c>
-      <c r="M5" t="str">
+      <c r="U5" t="str">
         <v>Copy Paper</v>
       </c>
-      <c r="N5">
+      <c r="V5">
         <v>10</v>
       </c>
-      <c r="O5">
+      <c r="W5">
         <v>99.9</v>
       </c>
-      <c r="AI5" t="str" cm="1">
-        <f t="array" ref="AI5">INDEX(dm_sales[product],
-MATCH(0, COUNTIF($AI$1:AI4,
+      <c r="AQ5" t="str" cm="1">
+        <f t="array" ref="AQ5">INDEX(dm_sales[product],
+MATCH(0, COUNTIF($AQ$1:AQ4,
     dm_sales[product]), 0))</f>
         <v>Envelopes</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -988,42 +956,42 @@
       <c r="F6" s="3">
         <v>14.97</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6">
+        <f>COUNTA(_xlfn.ANCHORARRAY(H2))</f>
+        <v>3</v>
+      </c>
+      <c r="P6">
         <v>6</v>
       </c>
-      <c r="J6">
+      <c r="R6">
         <v>6</v>
       </c>
-      <c r="K6" t="str">
+      <c r="S6" t="str">
         <v>Pam</v>
       </c>
-      <c r="L6" t="str">
+      <c r="T6" t="str">
         <v>Halpert</v>
       </c>
-      <c r="M6" t="str">
+      <c r="U6" t="str">
         <v>Copy Paper</v>
       </c>
-      <c r="N6">
+      <c r="V6">
         <v>8</v>
       </c>
-      <c r="O6">
+      <c r="W6">
         <v>79.92</v>
       </c>
-      <c r="Y6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z6">
-        <f>COUNTA(_xlfn.ANCHORARRAY(Y2))</f>
-        <v>3</v>
-      </c>
-      <c r="AI6" t="str" cm="1">
-        <f t="array" ref="AI6">INDEX(dm_sales[product],
-MATCH(0, COUNTIF($AI$1:AI5,
+      <c r="AQ6" t="str" cm="1">
+        <f t="array" ref="AQ6">INDEX(dm_sales[product],
+MATCH(0, COUNTIF($AQ$1:AQ5,
     dm_sales[product]), 0))</f>
         <v>Legal Pads</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1042,35 +1010,35 @@
       <c r="F7" s="3">
         <v>79.92</v>
       </c>
-      <c r="H7">
+      <c r="P7">
         <v>12</v>
       </c>
-      <c r="J7">
+      <c r="R7">
         <v>12</v>
       </c>
-      <c r="K7" t="str">
+      <c r="S7" t="str">
         <v>Jim</v>
       </c>
-      <c r="L7" t="str">
+      <c r="T7" t="str">
         <v>Halpert</v>
       </c>
-      <c r="M7" t="str">
+      <c r="U7" t="str">
         <v>Printer Ink</v>
       </c>
-      <c r="N7">
+      <c r="V7">
         <v>8</v>
       </c>
-      <c r="O7">
+      <c r="W7">
         <v>79.92</v>
       </c>
-      <c r="AI7" t="str" cm="1">
-        <f t="array" ref="AI7">INDEX(dm_sales[product],
-MATCH(0, COUNTIF($AI$1:AI6,
+      <c r="AQ7" t="str" cm="1">
+        <f t="array" ref="AQ7">INDEX(dm_sales[product],
+MATCH(0, COUNTIF($AQ$1:AQ6,
     dm_sales[product]), 0))</f>
         <v>File folders</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1089,35 +1057,35 @@
       <c r="F8" s="3">
         <v>24.9</v>
       </c>
-      <c r="H8">
+      <c r="P8">
         <v>13</v>
       </c>
-      <c r="J8">
+      <c r="R8">
         <v>13</v>
       </c>
-      <c r="K8" t="str">
+      <c r="S8" t="str">
         <v>Phyllis</v>
       </c>
-      <c r="L8" t="str">
+      <c r="T8" t="str">
         <v>Vance</v>
       </c>
-      <c r="M8" t="str">
+      <c r="U8" t="str">
         <v>Envelopes</v>
       </c>
-      <c r="N8">
+      <c r="V8">
         <v>15</v>
       </c>
-      <c r="O8">
+      <c r="W8">
         <v>74.849999999999994</v>
       </c>
-      <c r="AI8" t="str" cm="1">
-        <f t="array" ref="AI8">INDEX(dm_sales[product],
-MATCH(0, COUNTIF($AI$1:AI7,
+      <c r="AQ8" t="str" cm="1">
+        <f t="array" ref="AQ8">INDEX(dm_sales[product],
+MATCH(0, COUNTIF($AQ$1:AQ7,
     dm_sales[product]), 0))</f>
         <v>Rubber bands</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1136,29 +1104,48 @@
       <c r="F9" s="3">
         <v>99.95</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="str" cm="1">
+        <f t="array" ref="H9:M9">dm_sales[#Headers]</f>
+        <v>trans_id</v>
+      </c>
+      <c r="I9" t="str">
+        <v>emp_first</v>
+      </c>
+      <c r="J9" t="str">
+        <v>emp_last</v>
+      </c>
+      <c r="K9" t="str">
+        <v>product</v>
+      </c>
+      <c r="L9" t="str">
+        <v>quantity</v>
+      </c>
+      <c r="M9" t="str">
+        <v>sales_amt</v>
+      </c>
+      <c r="P9">
         <v>14</v>
       </c>
-      <c r="J9">
+      <c r="R9">
         <v>14</v>
       </c>
-      <c r="K9" t="str">
+      <c r="S9" t="str">
         <v>Andy</v>
       </c>
-      <c r="L9" t="str">
+      <c r="T9" t="str">
         <v>Bernard</v>
       </c>
-      <c r="M9" t="str">
+      <c r="U9" t="str">
         <v>Legal Pads</v>
       </c>
-      <c r="N9">
-        <v>3</v>
-      </c>
-      <c r="O9">
+      <c r="V9">
+        <v>3</v>
+      </c>
+      <c r="W9">
         <v>59.97</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1177,29 +1164,49 @@
       <c r="F10" s="3">
         <v>119.88</v>
       </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="J10">
-        <v>3</v>
+      <c r="H10" cm="1">
+        <f t="array" ref="H10:M10">_xlfn._xlws.FILTER(dm_sales[],
+dm_sales[product] = "Sticky Notes")</f>
+        <v>2</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Pam</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Halpert</v>
       </c>
       <c r="K10" t="str">
+        <v>Sticky Notes</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <v>12.45</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>3</v>
+      </c>
+      <c r="S10" t="str">
         <v>Andy</v>
       </c>
-      <c r="L10" t="str">
+      <c r="T10" t="str">
         <v>Bernard</v>
       </c>
-      <c r="M10" t="str">
+      <c r="U10" t="str">
         <v>Printer Ink</v>
       </c>
-      <c r="N10">
-        <v>2</v>
-      </c>
-      <c r="O10">
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10">
         <v>39.979999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1218,29 +1225,29 @@
       <c r="F11" s="3">
         <v>17.43</v>
       </c>
-      <c r="H11">
+      <c r="P11">
         <v>11</v>
       </c>
-      <c r="J11">
+      <c r="R11">
         <v>11</v>
       </c>
-      <c r="K11" t="str">
+      <c r="S11" t="str">
         <v>Andy</v>
       </c>
-      <c r="L11" t="str">
+      <c r="T11" t="str">
         <v>Bernard</v>
       </c>
-      <c r="M11" t="str">
+      <c r="U11" t="str">
         <v>Copy Paper</v>
       </c>
-      <c r="N11">
+      <c r="V11">
         <v>4</v>
       </c>
-      <c r="O11">
+      <c r="W11">
         <v>39.96</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1259,29 +1266,29 @@
       <c r="F12" s="3">
         <v>39.96</v>
       </c>
-      <c r="H12">
+      <c r="P12">
         <v>7</v>
       </c>
-      <c r="J12">
+      <c r="R12">
         <v>7</v>
       </c>
-      <c r="K12" t="str">
+      <c r="S12" t="str">
         <v>Andy</v>
       </c>
-      <c r="L12" t="str">
+      <c r="T12" t="str">
         <v>Bernard</v>
       </c>
-      <c r="M12" t="str">
+      <c r="U12" t="str">
         <v>File folders</v>
       </c>
-      <c r="N12">
+      <c r="V12">
         <v>10</v>
       </c>
-      <c r="O12">
+      <c r="W12">
         <v>24.9</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1300,29 +1307,29 @@
       <c r="F13" s="3">
         <v>79.92</v>
       </c>
-      <c r="H13">
+      <c r="P13">
         <v>10</v>
       </c>
-      <c r="J13">
+      <c r="R13">
         <v>10</v>
       </c>
-      <c r="K13" t="str">
+      <c r="S13" t="str">
         <v>Pam</v>
       </c>
-      <c r="L13" t="str">
+      <c r="T13" t="str">
         <v>Halpert</v>
       </c>
-      <c r="M13" t="str">
+      <c r="U13" t="str">
         <v>Legal Pads</v>
       </c>
-      <c r="N13">
+      <c r="V13">
         <v>7</v>
       </c>
-      <c r="O13">
+      <c r="W13">
         <v>17.43</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1341,29 +1348,29 @@
       <c r="F14" s="3">
         <v>74.849999999999994</v>
       </c>
-      <c r="H14">
+      <c r="P14">
         <v>5</v>
       </c>
-      <c r="J14">
+      <c r="R14">
         <v>5</v>
       </c>
-      <c r="K14" t="str">
+      <c r="S14" t="str">
         <v>Jim</v>
       </c>
-      <c r="L14" t="str">
+      <c r="T14" t="str">
         <v>Halpert</v>
       </c>
-      <c r="M14" t="str">
+      <c r="U14" t="str">
         <v>Legal Pads</v>
       </c>
-      <c r="N14">
-        <v>3</v>
-      </c>
-      <c r="O14">
+      <c r="V14">
+        <v>3</v>
+      </c>
+      <c r="W14">
         <v>14.97</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1382,29 +1389,29 @@
       <c r="F15" s="3">
         <v>59.97</v>
       </c>
-      <c r="H15">
+      <c r="P15">
         <v>15</v>
       </c>
-      <c r="J15">
+      <c r="R15">
         <v>15</v>
       </c>
-      <c r="K15" t="str">
+      <c r="S15" t="str">
         <v>Stanley</v>
       </c>
-      <c r="L15" t="str">
+      <c r="T15" t="str">
         <v>Hudson</v>
       </c>
-      <c r="M15" t="str">
+      <c r="U15" t="str">
         <v>Rubber bands</v>
       </c>
-      <c r="N15">
+      <c r="V15">
         <v>60</v>
       </c>
-      <c r="O15">
+      <c r="W15">
         <v>14.94</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1423,25 +1430,25 @@
       <c r="F16" s="3">
         <v>14.94</v>
       </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="K16" t="str">
+      <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16" t="str">
         <v>Pam</v>
       </c>
-      <c r="L16" t="str">
+      <c r="T16" t="str">
         <v>Halpert</v>
       </c>
-      <c r="M16" t="str">
+      <c r="U16" t="str">
         <v>Sticky Notes</v>
       </c>
-      <c r="N16">
+      <c r="V16">
         <v>5</v>
       </c>
-      <c r="O16">
+      <c r="W16">
         <v>12.45</v>
       </c>
     </row>
